--- a/modelo6/origen/ficheros/iniciales/plantilla.xlsx
+++ b/modelo6/origen/ficheros/iniciales/plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\iniciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Catastro\Modelo_6\ficha\ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F7BF35-F305-43D6-8DF7-67E2EC132536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD3DE9-9C2C-4795-BE74-2584BB84851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA RESUMEN PLACO" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -557,17 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -692,11 +681,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -705,20 +703,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -729,55 +740,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -796,14 +785,14 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,12 +1283,12 @@
   <sheetData>
     <row r="1" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -1311,24 +1300,24 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="61" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -1340,22 +1329,22 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1367,115 +1356,115 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
     </row>
     <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="62" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" spans="1:27" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="39" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
     </row>
     <row r="10" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -1492,252 +1481,252 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="53"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="54" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="56" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="37"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="47"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="54" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="60" t="s">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1754,14 +1743,14 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="14" t="s">
         <v>18</v>
       </c>
@@ -1788,21 +1777,21 @@
       <c r="V20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="63" t="s">
+      <c r="W20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="35"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="15"/>
       <c r="H21" s="13" t="s">
         <v>20</v>
@@ -1832,12 +1821,12 @@
       <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>18</v>
       </c>
@@ -1873,12 +1862,12 @@
       <c r="AA22" s="7"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="15"/>
       <c r="H23" s="13" t="s">
         <v>25</v>
@@ -1922,97 +1911,97 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="51" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="53"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="43" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="38"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
     </row>
     <row r="28" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -2029,80 +2018,70 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="33" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="37"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="43"/>
     </row>
     <row r="31" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="A20:F23"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="K16:AA18"/>
-    <mergeCell ref="R2:U4"/>
-    <mergeCell ref="V2:AA4"/>
-    <mergeCell ref="P7:AA7"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="G16:J18"/>
     <mergeCell ref="G29:AA30"/>
     <mergeCell ref="P9:AA9"/>
     <mergeCell ref="A29:F30"/>
@@ -2116,6 +2095,16 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="G11:AA11"/>
     <mergeCell ref="K13:AA15"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="A20:F23"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="K16:AA18"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="V2:AA4"/>
+    <mergeCell ref="P7:AA7"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="G16:J18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.31496062992125978" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.39370078740157483"/>
@@ -2134,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2170,45 +2159,45 @@
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2244,133 +2233,133 @@
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" s="3" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
     </row>
     <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="62" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="39" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
     </row>
     <row r="10" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2402,37 +2391,37 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="53"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
@@ -2517,16 +2506,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="P9:AA9"/>
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="O12:AA12"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="P7:AA7"/>
     <mergeCell ref="C2:J3"/>
     <mergeCell ref="P2:AA2"/>
     <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="P9:AA9"/>
-    <mergeCell ref="A10:AA10"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="O12:AA12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -2541,8 +2530,8 @@
   </sheetPr>
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:Y4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2620,68 +2609,68 @@
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" s="3" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-    </row>
-    <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+    </row>
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2699,23 +2688,23 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="70" t="s">
         <v>6</v>
       </c>
@@ -2732,35 +2721,35 @@
       <c r="AA9" s="72"/>
     </row>
     <row r="10" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -3146,8 +3135,8 @@
     <mergeCell ref="V2:Y4"/>
     <mergeCell ref="A6:AA6"/>
     <mergeCell ref="P7:AA7"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
